--- a/dos.xlsx
+++ b/dos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FREDDY\Desktop\rep1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FREDDY\Desktop\T.GRUPO4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D0417C-19B8-41AA-85EF-6792A79C9A59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C049C6-1165-4C1B-AA54-64C30ABE9FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="3210" windowWidth="12150" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11610" yWindow="2355" windowWidth="12150" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -348,10 +348,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,6 +385,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dos.xlsx
+++ b/dos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FREDDY\Desktop\T.GRUPO4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C049C6-1165-4C1B-AA54-64C30ABE9FD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C6A170-B997-431F-8CE3-629713222B31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11610" yWindow="2355" windowWidth="12150" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,7 +351,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,6 +385,11 @@
         <v>10</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>12</v>
+      </c>
+    </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>56</v>
